--- a/biology/Médecine/Ligament_trapézoïde/Ligament_trapézoïde.xlsx
+++ b/biology/Médecine/Ligament_trapézoïde/Ligament_trapézoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_trap%C3%A9zo%C3%AFde</t>
+          <t>Ligament_trapézoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament trapézoïde est situé dans l'épaule. C'est un ligament stabilisateur de l'articulation acromio-claviculaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_trap%C3%A9zo%C3%AFde</t>
+          <t>Ligament_trapézoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament trapézoïde a pour origine le quart latéral de la face inférieure de la clavicule, en dehors du ligament conoïde. Sa surface d'insertion est de forme triangulaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament trapézoïde a pour origine le quart latéral de la face inférieure de la clavicule, en dehors du ligament conoïde. Sa surface d'insertion est de forme triangulaire.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_trap%C3%A9zo%C3%AFde</t>
+          <t>Ligament_trapézoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament trapézoïde forme un trapèze épais (5 mm)  orienté en haut, en dehors et légèrement en avant.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_trap%C3%A9zo%C3%AFde</t>
+          <t>Ligament_trapézoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'achève sur la face supérieure du processus coracoïde, sur la scapula[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'achève sur la face supérieure du processus coracoïde, sur la scapula.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ligament_trap%C3%A9zo%C3%AFde</t>
+          <t>Ligament_trapézoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Biomécanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament trapézoïde assure la stabilité de l'articulation acromio-claviculaire avec le ligament conoïde et le ligament coraco-claviculaire médial[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament trapézoïde assure la stabilité de l'articulation acromio-claviculaire avec le ligament conoïde et le ligament coraco-claviculaire médial.
 </t>
         </is>
       </c>
